--- a/subbind/subbind addon/idle/facebook counter-productive/facebook friend filter/facebook filter.xlsx
+++ b/subbind/subbind addon/idle/facebook counter-productive/facebook friend filter/facebook filter.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="1801">
   <si>
     <t>,100007536000219</t>
   </si>
@@ -5158,6 +5158,318 @@
   </si>
   <si>
     <t>Isaac Robert</t>
+  </si>
+  <si>
+    <t>,100004010661134</t>
+  </si>
+  <si>
+    <t>Piero Stefano BG</t>
+  </si>
+  <si>
+    <t>,100013932523301</t>
+  </si>
+  <si>
+    <t>Hadi Akeem</t>
+  </si>
+  <si>
+    <t>,100001485074048</t>
+  </si>
+  <si>
+    <t>Michael Rose</t>
+  </si>
+  <si>
+    <t>,100000498126488</t>
+  </si>
+  <si>
+    <t>Relic Room</t>
+  </si>
+  <si>
+    <t>,100002517640175</t>
+  </si>
+  <si>
+    <t>Dmitry Galkin</t>
+  </si>
+  <si>
+    <t>,100001798132764</t>
+  </si>
+  <si>
+    <t>Carolyn Abaunza</t>
+  </si>
+  <si>
+    <t>,100064734679987</t>
+  </si>
+  <si>
+    <t>Yfworwgus</t>
+  </si>
+  <si>
+    <t>,100065618210215</t>
+  </si>
+  <si>
+    <t>Erik Zepka</t>
+  </si>
+  <si>
+    <t>,100024227196010</t>
+  </si>
+  <si>
+    <t>Jimmy Armstrong</t>
+  </si>
+  <si>
+    <t>,100015117619038</t>
+  </si>
+  <si>
+    <t>Usman Zaheer</t>
+  </si>
+  <si>
+    <t>,614407935</t>
+  </si>
+  <si>
+    <t>Ryan Bailey</t>
+  </si>
+  <si>
+    <t>,599740864</t>
+  </si>
+  <si>
+    <t>Kasia Molga</t>
+  </si>
+  <si>
+    <t>,605723645</t>
+  </si>
+  <si>
+    <t>Ruben Browne</t>
+  </si>
+  <si>
+    <t>,674806730</t>
+  </si>
+  <si>
+    <t>Phil Boileau</t>
+  </si>
+  <si>
+    <t>,507607335</t>
+  </si>
+  <si>
+    <t>Pei-Ying Lin</t>
+  </si>
+  <si>
+    <t>,528095895</t>
+  </si>
+  <si>
+    <t>Adam Donovan</t>
+  </si>
+  <si>
+    <t>,1401842543</t>
+  </si>
+  <si>
+    <t>Mike Lustgarten</t>
+  </si>
+  <si>
+    <t>,1248730206</t>
+  </si>
+  <si>
+    <t>Salman Promon</t>
+  </si>
+  <si>
+    <t>,1287493849</t>
+  </si>
+  <si>
+    <t>Desax Idnumsi</t>
+  </si>
+  <si>
+    <t>,1323550414</t>
+  </si>
+  <si>
+    <t>Naoko Tosa</t>
+  </si>
+  <si>
+    <t>,1384175635</t>
+  </si>
+  <si>
+    <t>So Kanno</t>
+  </si>
+  <si>
+    <t>,100000045214405</t>
+  </si>
+  <si>
+    <t>Ping-yi Chen</t>
+  </si>
+  <si>
+    <t>,100000066825730</t>
+  </si>
+  <si>
+    <t>Cristóbal García García</t>
+  </si>
+  <si>
+    <t>,874160693</t>
+  </si>
+  <si>
+    <t>Pamela Lewis</t>
+  </si>
+  <si>
+    <t>,733547279</t>
+  </si>
+  <si>
+    <t>Damien Charrieras</t>
+  </si>
+  <si>
+    <t>,1102976981</t>
+  </si>
+  <si>
+    <t>葆葆</t>
+  </si>
+  <si>
+    <t>,1143244619</t>
+  </si>
+  <si>
+    <t>Ann Lee Carpenter</t>
+  </si>
+  <si>
+    <t>,1179755110</t>
+  </si>
+  <si>
+    <t>Nicolas Maigret</t>
+  </si>
+  <si>
+    <t>,1046979920</t>
+  </si>
+  <si>
+    <t>Shiva Nagri</t>
+  </si>
+  <si>
+    <t>,786357484</t>
+  </si>
+  <si>
+    <t>Aatu Koskensilta</t>
+  </si>
+  <si>
+    <t>,100004906654490</t>
+  </si>
+  <si>
+    <t>Zoltan Istvan</t>
+  </si>
+  <si>
+    <t>,100000322230058</t>
+  </si>
+  <si>
+    <t>Jesus Gonzalez</t>
+  </si>
+  <si>
+    <t>,6858746</t>
+  </si>
+  <si>
+    <t>Margaret Dolinsky</t>
+  </si>
+  <si>
+    <t>,100000569712917</t>
+  </si>
+  <si>
+    <t>Md Arefin</t>
+  </si>
+  <si>
+    <t>,731912730</t>
+  </si>
+  <si>
+    <t>Gina Czarnecki</t>
+  </si>
+  <si>
+    <t>,869955223</t>
+  </si>
+  <si>
+    <t>Andrii Linik</t>
+  </si>
+  <si>
+    <t>,100015571446301</t>
+  </si>
+  <si>
+    <t>Rex Vincent Costanilla Fajardo</t>
+  </si>
+  <si>
+    <t>,100076157337791</t>
+  </si>
+  <si>
+    <t>Incog Nito</t>
+  </si>
+  <si>
+    <t>,575232291</t>
+  </si>
+  <si>
+    <t>Gustavo Alfonso Rincon</t>
+  </si>
+  <si>
+    <t>,1053732675</t>
+  </si>
+  <si>
+    <t>Francesco Urbano Ragazzi</t>
+  </si>
+  <si>
+    <t>,580100659</t>
+  </si>
+  <si>
+    <t>Mei Szetu</t>
+  </si>
+  <si>
+    <t>,540866996</t>
+  </si>
+  <si>
+    <t>Jen Southern</t>
+  </si>
+  <si>
+    <t>,100049253507093</t>
+  </si>
+  <si>
+    <t>Prosper Arjuna</t>
+  </si>
+  <si>
+    <t>,1515306540</t>
+  </si>
+  <si>
+    <t>Gary Wayne Richardson</t>
+  </si>
+  <si>
+    <t>,100009099084541</t>
+  </si>
+  <si>
+    <t>Zaza Bebia</t>
+  </si>
+  <si>
+    <t>,1118623512</t>
+  </si>
+  <si>
+    <t>Renato Galindo Caceres</t>
+  </si>
+  <si>
+    <t>,100000315274200</t>
+  </si>
+  <si>
+    <t>Minerva H. Trejo</t>
+  </si>
+  <si>
+    <t>,662678011</t>
+  </si>
+  <si>
+    <t>Georg Tremmel</t>
+  </si>
+  <si>
+    <t>,100000783936407</t>
+  </si>
+  <si>
+    <t>Kaethe Wenzel</t>
+  </si>
+  <si>
+    <t>,100000839110430</t>
+  </si>
+  <si>
+    <t>Masato Takemura</t>
+  </si>
+  <si>
+    <t>,100009358779555</t>
+  </si>
+  <si>
+    <t>Adi Zee</t>
+  </si>
+  <si>
+    <t>,732477593</t>
+  </si>
+  <si>
+    <t>Guy Ben-Ary</t>
   </si>
 </sst>
 </file>
@@ -5223,7 +5535,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="33">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5333,6 +5645,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -5341,6 +5669,118 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5766,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T242"/>
+  <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25"/>
@@ -5794,10 +6234,12 @@
     <col min="18" max="18" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="1">
         <v>44419</v>
       </c>
@@ -5828,8 +6270,11 @@
       <c r="S1" s="1">
         <v>44998</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5885,13 +6330,19 @@
         <v>17</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>1458</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -5947,13 +6398,19 @@
         <v>691</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>1462</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -6009,13 +6466,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>1455</v>
+        <v>1477</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>1478</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -6071,13 +6534,19 @@
         <v>11</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1457</v>
+        <v>1481</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>1482</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,13 +6602,19 @@
         <v>3</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>1459</v>
+        <v>1501</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>1502</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -6195,13 +6670,19 @@
         <v>925</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1461</v>
+        <v>1511</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>1512</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -6257,13 +6738,19 @@
         <v>705</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>1463</v>
+        <v>1513</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>1514</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -6319,13 +6806,19 @@
         <v>707</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>1465</v>
+        <v>1521</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>1522</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -6381,13 +6874,19 @@
         <v>933</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>1467</v>
+        <v>1525</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>1526</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -6443,13 +6942,19 @@
         <v>1180</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1469</v>
+        <v>1527</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>1528</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
@@ -6505,13 +7010,19 @@
         <v>715</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>1471</v>
+        <v>1533</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>1534</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -6567,13 +7078,19 @@
         <v>939</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1473</v>
+        <v>1543</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>1544</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -6629,13 +7146,19 @@
         <v>519</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>1475</v>
+        <v>1545</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>1546</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -6691,13 +7214,19 @@
         <v>953</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>1477</v>
+        <v>1565</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>1566</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>234</v>
       </c>
@@ -6753,13 +7282,19 @@
         <v>43</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>1479</v>
+        <v>1567</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>1568</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>250</v>
       </c>
@@ -6815,13 +7350,19 @@
         <v>45</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>1481</v>
+        <v>1575</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>1576</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>280</v>
       </c>
@@ -6877,13 +7418,19 @@
         <v>1272</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>1483</v>
+        <v>1577</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>1578</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>290</v>
       </c>
@@ -6939,13 +7486,19 @@
         <v>729</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1485</v>
+        <v>1579</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>1580</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7001,13 +7554,19 @@
         <v>419</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>1487</v>
+        <v>1585</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>1586</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -7063,13 +7622,19 @@
         <v>735</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1489</v>
+        <v>1589</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>1590</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -7125,13 +7690,19 @@
         <v>57</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1491</v>
+        <v>1593</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>1594</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -7187,13 +7758,19 @@
         <v>531</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1493</v>
+        <v>1611</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>1612</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>192</v>
       </c>
@@ -7249,13 +7826,19 @@
         <v>23</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1495</v>
+        <v>1627</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>1628</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -7311,13 +7894,19 @@
         <v>63</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>1497</v>
+        <v>1633</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>1634</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>246</v>
       </c>
@@ -7373,13 +7962,19 @@
         <v>961</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1499</v>
+        <v>1647</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>1648</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -7435,13 +8030,19 @@
         <v>67</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1501</v>
+        <v>1663</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>1664</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>262</v>
       </c>
@@ -7497,13 +8098,19 @@
         <v>763</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>1503</v>
+        <v>1671</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>1672</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>284</v>
       </c>
@@ -7559,13 +8166,19 @@
         <v>425</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>1505</v>
+        <v>1675</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>1676</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>298</v>
       </c>
@@ -7621,13 +8234,19 @@
         <v>535</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1507</v>
+        <v>1451</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>1452</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -7683,13 +8302,19 @@
         <v>427</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>1509</v>
+        <v>1453</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>1454</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -7745,13 +8370,19 @@
         <v>537</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>1511</v>
+        <v>1455</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>1456</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -7807,13 +8438,19 @@
         <v>767</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>1513</v>
+        <v>1459</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>1460</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -7869,13 +8506,19 @@
         <v>429</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1515</v>
+        <v>1463</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>1464</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -7931,13 +8574,19 @@
         <v>341</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1517</v>
+        <v>1465</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>1466</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -7993,13 +8642,19 @@
         <v>545</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>1519</v>
+        <v>1467</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>1468</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -8055,13 +8710,19 @@
         <v>991</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>1521</v>
+        <v>1469</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>1470</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -8117,13 +8778,19 @@
         <v>105</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>1523</v>
+        <v>1471</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>1472</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -8179,13 +8846,19 @@
         <v>347</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>1525</v>
+        <v>1473</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>1474</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -8241,13 +8914,19 @@
         <v>551</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>1476</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -8303,13 +8982,19 @@
         <v>995</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1529</v>
+        <v>1479</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>1480</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -8365,13 +9050,19 @@
         <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1531</v>
+        <v>1483</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>1484</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
@@ -8427,13 +9118,19 @@
         <v>563</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>1533</v>
+        <v>1485</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>1486</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>136</v>
       </c>
@@ -8489,13 +9186,19 @@
         <v>1210</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>1535</v>
+        <v>1487</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>1488</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -8551,13 +9254,19 @@
         <v>1216</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>1537</v>
+        <v>1489</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>1490</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>154</v>
       </c>
@@ -8613,13 +9322,19 @@
         <v>1310</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>1539</v>
+        <v>1491</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>1492</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -8675,13 +9390,19 @@
         <v>1033</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>1541</v>
+        <v>1493</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>1494</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -8737,13 +9458,19 @@
         <v>1035</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>1543</v>
+        <v>1495</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>1496</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -8799,13 +9526,19 @@
         <v>1037</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>1545</v>
+        <v>1497</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>1498</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>188</v>
       </c>
@@ -8861,13 +9594,19 @@
         <v>1314</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>1547</v>
+        <v>1499</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>1500</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -8923,13 +9662,19 @@
         <v>591</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>1549</v>
+        <v>1503</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>1504</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -8985,13 +9730,19 @@
         <v>363</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>1551</v>
+        <v>1505</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>1506</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
         <v>240</v>
       </c>
@@ -9047,13 +9798,19 @@
         <v>599</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>1553</v>
+        <v>1507</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>1508</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>252</v>
       </c>
@@ -9109,13 +9866,19 @@
         <v>133</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>1555</v>
+        <v>1509</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>1510</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>270</v>
       </c>
@@ -9171,13 +9934,19 @@
         <v>829</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>1557</v>
+        <v>1515</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>1516</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>272</v>
       </c>
@@ -9233,13 +10002,19 @@
         <v>833</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>1559</v>
+        <v>1517</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>1518</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>288</v>
       </c>
@@ -9295,13 +10070,19 @@
         <v>609</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>1561</v>
+        <v>1519</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>1520</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
         <v>294</v>
       </c>
@@ -9357,13 +10138,19 @@
         <v>461</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>1563</v>
+        <v>1523</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>1524</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -9419,13 +10206,19 @@
         <v>837</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>1565</v>
+        <v>1529</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>1530</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -9481,13 +10274,19 @@
         <v>163</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>1567</v>
+        <v>1531</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>1532</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -9543,13 +10342,19 @@
         <v>165</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>1569</v>
+        <v>1535</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>1536</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -9605,13 +10410,19 @@
         <v>169</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>1571</v>
+        <v>1537</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>1538</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -9667,13 +10478,19 @@
         <v>853</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>1573</v>
+        <v>1539</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>1540</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
@@ -9729,13 +10546,19 @@
         <v>1236</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>1575</v>
+        <v>1541</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>1542</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -9791,13 +10614,19 @@
         <v>855</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>1577</v>
+        <v>1547</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>1548</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
@@ -9853,13 +10682,19 @@
         <v>1242</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>1579</v>
+        <v>1549</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>1550</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
@@ -9915,13 +10750,19 @@
         <v>185</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>1581</v>
+        <v>1551</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>1552</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
         <v>228</v>
       </c>
@@ -9977,13 +10818,19 @@
         <v>1095</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>1583</v>
+        <v>1553</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>1554</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -10039,13 +10886,19 @@
         <v>639</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>1585</v>
+        <v>1555</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>1556</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
         <v>254</v>
       </c>
@@ -10101,13 +10954,19 @@
         <v>221</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>1558</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
         <v>266</v>
       </c>
@@ -10163,13 +11022,19 @@
         <v>867</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>1560</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
         <v>268</v>
       </c>
@@ -10225,13 +11090,19 @@
         <v>225</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>1591</v>
+        <v>1561</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>1562</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
         <v>292</v>
       </c>
@@ -10281,13 +11152,19 @@
         <v>227</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>1593</v>
+        <v>1563</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>1564</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -10331,13 +11208,19 @@
         <v>229</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>1595</v>
+        <v>1569</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>1570</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -10381,13 +11264,19 @@
         <v>231</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>1597</v>
+        <v>1571</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>1572</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -10431,13 +11320,19 @@
         <v>1116</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>1599</v>
+        <v>1573</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>1574</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -10481,13 +11376,19 @@
         <v>475</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>1582</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -10531,13 +11432,19 @@
         <v>237</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>1603</v>
+        <v>1583</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>1584</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
@@ -10581,13 +11488,19 @@
         <v>263</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>1605</v>
+        <v>1587</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>1588</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -10631,13 +11544,19 @@
         <v>271</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>1592</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1" t="s">
         <v>138</v>
       </c>
@@ -10681,13 +11600,19 @@
         <v>669</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>1609</v>
+        <v>1595</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>1596</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -10731,13 +11656,13 @@
         <v>1146</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>1611</v>
+        <v>1597</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
         <v>152</v>
       </c>
@@ -10781,13 +11706,13 @@
         <v>483</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>1613</v>
+        <v>1599</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
@@ -10831,13 +11756,13 @@
         <v>1152</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>1615</v>
+        <v>1601</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1" t="s">
         <v>162</v>
       </c>
@@ -10881,13 +11806,13 @@
         <v>1160</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>1617</v>
+        <v>1603</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -10931,13 +11856,13 @@
         <v>917</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
@@ -10981,13 +11906,13 @@
         <v>1374</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>1621</v>
+        <v>1607</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
         <v>200</v>
       </c>
@@ -11031,13 +11956,13 @@
         <v>1172</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>1623</v>
+        <v>1609</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1" t="s">
         <v>216</v>
       </c>
@@ -11081,13 +12006,13 @@
         <v>409</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1" t="s">
         <v>220</v>
       </c>
@@ -11131,13 +12056,13 @@
         <v>1378</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -11181,13 +12106,13 @@
         <v>1380</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -11231,13 +12156,13 @@
         <v>1382</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1" t="s">
         <v>238</v>
       </c>
@@ -11281,13 +12206,13 @@
         <v>1384</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
         <v>264</v>
       </c>
@@ -11331,13 +12256,13 @@
         <v>1386</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -11381,13 +12306,13 @@
         <v>1388</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1" t="s">
         <v>286</v>
       </c>
@@ -11431,10 +12356,10 @@
         <v>1390</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -11481,10 +12406,10 @@
         <v>1392</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -11531,10 +12456,10 @@
         <v>1394</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -11581,10 +12506,10 @@
         <v>1396</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -11631,10 +12556,10 @@
         <v>1398</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -11681,10 +12606,10 @@
         <v>1400</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -11731,10 +12656,10 @@
         <v>1402</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -11781,10 +12706,10 @@
         <v>1404</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -11831,10 +12756,10 @@
         <v>1406</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -11881,10 +12806,10 @@
         <v>1408</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -11931,10 +12856,10 @@
         <v>1410</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -11981,10 +12906,10 @@
         <v>1412</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -12031,10 +12956,10 @@
         <v>1414</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -12081,10 +13006,10 @@
         <v>1416</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -12131,10 +13056,10 @@
         <v>1418</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -12181,10 +13106,10 @@
         <v>1420</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -12231,10 +13156,10 @@
         <v>1422</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -12281,10 +13206,10 @@
         <v>1424</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -12331,10 +13256,10 @@
         <v>1426</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -14754,35 +15679,35 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="Q2:R242">
-    <sortCondition sortBy="cellColor" ref="Q2:Q242" dxfId="20"/>
+  <sortState ref="U2:V242">
+    <sortCondition sortBy="cellColor" ref="U2:U242" dxfId="10"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P166">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/subbind/subbind addon/idle/facebook counter-productive/facebook friend filter/facebook filter.xlsx
+++ b/subbind/subbind addon/idle/facebook counter-productive/facebook friend filter/facebook filter.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1983">
   <si>
     <t>,100007536000219</t>
   </si>
@@ -5470,6 +5470,552 @@
   </si>
   <si>
     <t>Guy Ben-Ary</t>
+  </si>
+  <si>
+    <t>,100006908651138</t>
+  </si>
+  <si>
+    <t>Andrew Adamatzky</t>
+  </si>
+  <si>
+    <t>,100009068005681</t>
+  </si>
+  <si>
+    <t>Devon Schiller</t>
+  </si>
+  <si>
+    <t>,100004702990746</t>
+  </si>
+  <si>
+    <t>Tom Ross</t>
+  </si>
+  <si>
+    <t>,100006643538073</t>
+  </si>
+  <si>
+    <t>Diana Neranti</t>
+  </si>
+  <si>
+    <t>,100011805121301</t>
+  </si>
+  <si>
+    <t>Ramiro Chávez Tovar</t>
+  </si>
+  <si>
+    <t>,100000464713204</t>
+  </si>
+  <si>
+    <t>Jörg Piringer</t>
+  </si>
+  <si>
+    <t>,100000580548031</t>
+  </si>
+  <si>
+    <t>Tim Cannon</t>
+  </si>
+  <si>
+    <t>,100002495142419</t>
+  </si>
+  <si>
+    <t>Gaëtan Le Coarer</t>
+  </si>
+  <si>
+    <t>,100001556236035</t>
+  </si>
+  <si>
+    <t>Mathilde Nourisson-Moncey</t>
+  </si>
+  <si>
+    <t>,100001621481449</t>
+  </si>
+  <si>
+    <t>Joseph Sarkis</t>
+  </si>
+  <si>
+    <t>,100052825453959</t>
+  </si>
+  <si>
+    <t>Kholod Hawash</t>
+  </si>
+  <si>
+    <t>,100053072566251</t>
+  </si>
+  <si>
+    <t>Emyy Amenyy</t>
+  </si>
+  <si>
+    <t>,100028530831948</t>
+  </si>
+  <si>
+    <t>Renzo Filinich</t>
+  </si>
+  <si>
+    <t>,100040461470588</t>
+  </si>
+  <si>
+    <t>Jerwis Galleza Mulawan</t>
+  </si>
+  <si>
+    <t>,100041538711601</t>
+  </si>
+  <si>
+    <t>Joe Bennett</t>
+  </si>
+  <si>
+    <t>,100022916917758</t>
+  </si>
+  <si>
+    <t>Ijaz Bangash</t>
+  </si>
+  <si>
+    <t>,610498276</t>
+  </si>
+  <si>
+    <t>Stanza Dna</t>
+  </si>
+  <si>
+    <t>,630977935</t>
+  </si>
+  <si>
+    <t>Reuben Barr</t>
+  </si>
+  <si>
+    <t>,634141938</t>
+  </si>
+  <si>
+    <t>Laura Splan</t>
+  </si>
+  <si>
+    <t>,594049238</t>
+  </si>
+  <si>
+    <t>Florian Grond</t>
+  </si>
+  <si>
+    <t>,697395950</t>
+  </si>
+  <si>
+    <t>Paul Sermon</t>
+  </si>
+  <si>
+    <t>,649164417</t>
+  </si>
+  <si>
+    <t>Nevena Ivanova</t>
+  </si>
+  <si>
+    <t>,654017169</t>
+  </si>
+  <si>
+    <t>Philipp Boeing</t>
+  </si>
+  <si>
+    <t>,664235517</t>
+  </si>
+  <si>
+    <t>Tom Laurenzo</t>
+  </si>
+  <si>
+    <t>,673878754</t>
+  </si>
+  <si>
+    <t>Maria Varela</t>
+  </si>
+  <si>
+    <t>,2501235</t>
+  </si>
+  <si>
+    <t>Brian Kirkpatrick</t>
+  </si>
+  <si>
+    <t>,6003191</t>
+  </si>
+  <si>
+    <t>Garnet Hertz</t>
+  </si>
+  <si>
+    <t>,557662992</t>
+  </si>
+  <si>
+    <t>Martin Kaltenbrunner</t>
+  </si>
+  <si>
+    <t>,520931892</t>
+  </si>
+  <si>
+    <t>Marycarmen Jimenez de Loera</t>
+  </si>
+  <si>
+    <t>,540266874</t>
+  </si>
+  <si>
+    <t>Per Platou</t>
+  </si>
+  <si>
+    <t>,544582997</t>
+  </si>
+  <si>
+    <t>Mindaugas Gapševičius</t>
+  </si>
+  <si>
+    <t>,549261319</t>
+  </si>
+  <si>
+    <t>Richard Barbrook</t>
+  </si>
+  <si>
+    <t>,1509493105</t>
+  </si>
+  <si>
+    <t>Elizabeth Jochum</t>
+  </si>
+  <si>
+    <t>,1248994337</t>
+  </si>
+  <si>
+    <t>Valencia Oyarce Renzo</t>
+  </si>
+  <si>
+    <t>,1836617934</t>
+  </si>
+  <si>
+    <t>Timothy Wakiyama</t>
+  </si>
+  <si>
+    <t>,100000134097885</t>
+  </si>
+  <si>
+    <t>Markus Riebe</t>
+  </si>
+  <si>
+    <t>,100000262980693</t>
+  </si>
+  <si>
+    <t>Brittany Dell</t>
+  </si>
+  <si>
+    <t>,785763841</t>
+  </si>
+  <si>
+    <t>Shulea Cheang</t>
+  </si>
+  <si>
+    <t>,755003342</t>
+  </si>
+  <si>
+    <t>Jonah Brucker-Cohen</t>
+  </si>
+  <si>
+    <t>,1099525841</t>
+  </si>
+  <si>
+    <t>Beverly Ann KLeiber</t>
+  </si>
+  <si>
+    <t>,516345984</t>
+  </si>
+  <si>
+    <t>Pawel Pachniewski</t>
+  </si>
+  <si>
+    <t>,579152375</t>
+  </si>
+  <si>
+    <t>Daniel Negreiros</t>
+  </si>
+  <si>
+    <t>,1644824458</t>
+  </si>
+  <si>
+    <t>Dehlia Hannah</t>
+  </si>
+  <si>
+    <t>,100000668967716</t>
+  </si>
+  <si>
+    <t>Alisha Allen</t>
+  </si>
+  <si>
+    <t>,500047496</t>
+  </si>
+  <si>
+    <t>Mark Doss</t>
+  </si>
+  <si>
+    <t>,100016200095123</t>
+  </si>
+  <si>
+    <t>Aleph Tav</t>
+  </si>
+  <si>
+    <t>,100004463352441</t>
+  </si>
+  <si>
+    <t>Andrew Devereaux</t>
+  </si>
+  <si>
+    <t>,100004408931813</t>
+  </si>
+  <si>
+    <t>James Feta</t>
+  </si>
+  <si>
+    <t>,100022297541267</t>
+  </si>
+  <si>
+    <t>Joe Stachio</t>
+  </si>
+  <si>
+    <t>,100000721455255</t>
+  </si>
+  <si>
+    <t>Erick Moreta</t>
+  </si>
+  <si>
+    <t>,1215570861</t>
+  </si>
+  <si>
+    <t>Chryseis Fox</t>
+  </si>
+  <si>
+    <t>,100001552481852</t>
+  </si>
+  <si>
+    <t>Youngkak Cho</t>
+  </si>
+  <si>
+    <t>,796980003</t>
+  </si>
+  <si>
+    <t>Paul Prudence</t>
+  </si>
+  <si>
+    <t>,100026569043879</t>
+  </si>
+  <si>
+    <t>Hossam Halim</t>
+  </si>
+  <si>
+    <t>,100000335142975</t>
+  </si>
+  <si>
+    <t>Tatjana Kudinova</t>
+  </si>
+  <si>
+    <t>,719766536</t>
+  </si>
+  <si>
+    <t>Ralph Klewitz</t>
+  </si>
+  <si>
+    <t>,628472426</t>
+  </si>
+  <si>
+    <t>Toma Garnier</t>
+  </si>
+  <si>
+    <t>,822822452</t>
+  </si>
+  <si>
+    <t>Annika Eriksson</t>
+  </si>
+  <si>
+    <t>,100002303902027</t>
+  </si>
+  <si>
+    <t>Enki Thales</t>
+  </si>
+  <si>
+    <t>,695238228</t>
+  </si>
+  <si>
+    <t>Klitsa Antoniou</t>
+  </si>
+  <si>
+    <t>,652207020</t>
+  </si>
+  <si>
+    <t>Jacqui Knight</t>
+  </si>
+  <si>
+    <t>,100006594432662</t>
+  </si>
+  <si>
+    <t>M. Ayhan Baloch</t>
+  </si>
+  <si>
+    <t>,555882275</t>
+  </si>
+  <si>
+    <t>Clément Renaud</t>
+  </si>
+  <si>
+    <t>,100000156280431</t>
+  </si>
+  <si>
+    <t>Nicolas Canot</t>
+  </si>
+  <si>
+    <t>,1060401147</t>
+  </si>
+  <si>
+    <t>Nicolas SchLäfer</t>
+  </si>
+  <si>
+    <t>,1707802651</t>
+  </si>
+  <si>
+    <t>AB Khamilabsu</t>
+  </si>
+  <si>
+    <t>,100011003974715</t>
+  </si>
+  <si>
+    <t>Karine Bonneval</t>
+  </si>
+  <si>
+    <t>,100000028473148</t>
+  </si>
+  <si>
+    <t>Ivo Schoofs</t>
+  </si>
+  <si>
+    <t>,656394070</t>
+  </si>
+  <si>
+    <t>Philip Pocock</t>
+  </si>
+  <si>
+    <t>,683852330</t>
+  </si>
+  <si>
+    <t>Inga Seidler</t>
+  </si>
+  <si>
+    <t>,100007403881225</t>
+  </si>
+  <si>
+    <t>Kouji Golden</t>
+  </si>
+  <si>
+    <t>,1075897267</t>
+  </si>
+  <si>
+    <t>Susanna Tesconi</t>
+  </si>
+  <si>
+    <t>,100001855958335</t>
+  </si>
+  <si>
+    <t>Elías Merino</t>
+  </si>
+  <si>
+    <t>,100005218119856</t>
+  </si>
+  <si>
+    <t>Miranda Moss</t>
+  </si>
+  <si>
+    <t>,100001274953163</t>
+  </si>
+  <si>
+    <t>Jason Nelson</t>
+  </si>
+  <si>
+    <t>,722617608</t>
+  </si>
+  <si>
+    <t>Martine Neddam</t>
+  </si>
+  <si>
+    <t>,1565592163</t>
+  </si>
+  <si>
+    <t>Marinos Koutsomichalis</t>
+  </si>
+  <si>
+    <t>,1018974626</t>
+  </si>
+  <si>
+    <t>Bam Herp</t>
+  </si>
+  <si>
+    <t>,1367871258</t>
+  </si>
+  <si>
+    <t>Jaime Alonso Lobato Cardoso</t>
+  </si>
+  <si>
+    <t>,814738257</t>
+  </si>
+  <si>
+    <t>Victor Acevedo</t>
+  </si>
+  <si>
+    <t>,100001578873717</t>
+  </si>
+  <si>
+    <t>Marius Fusariu</t>
+  </si>
+  <si>
+    <t>,569116003</t>
+  </si>
+  <si>
+    <t>Richard Garet</t>
+  </si>
+  <si>
+    <t>,693399186</t>
+  </si>
+  <si>
+    <t>Baruch Gottlieb</t>
+  </si>
+  <si>
+    <t>,553738570</t>
+  </si>
+  <si>
+    <t>Lukas Truniger</t>
+  </si>
+  <si>
+    <t>,1178269082</t>
+  </si>
+  <si>
+    <t>Ana Marcos</t>
+  </si>
+  <si>
+    <t>,676568435</t>
+  </si>
+  <si>
+    <t>Ramona Behravan</t>
+  </si>
+  <si>
+    <t>,100001030420482</t>
+  </si>
+  <si>
+    <t>Byron Rich</t>
+  </si>
+  <si>
+    <t>,1323636134</t>
+  </si>
+  <si>
+    <t>Regine Rapp</t>
+  </si>
+  <si>
+    <t>,544386653</t>
+  </si>
+  <si>
+    <t>Mario Gabiati</t>
+  </si>
+  <si>
+    <t>,551478361</t>
+  </si>
+  <si>
+    <t>Gilad Gomé</t>
+  </si>
+  <si>
+    <t>,100000127123588</t>
+  </si>
+  <si>
+    <t>Jan-Maarten Luursema</t>
   </si>
 </sst>
 </file>
@@ -5535,255 +6081,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <condense val="0"/>
@@ -6206,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V242"/>
+  <dimension ref="A1:X242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25"/>
@@ -6235,11 +6533,11 @@
     <col min="19" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="24" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1">
         <v>44419</v>
       </c>
@@ -6273,8 +6571,11 @@
       <c r="U1" s="1">
         <v>45001</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6341,8 +6642,14 @@
       <c r="V2" s="1" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6409,8 +6716,14 @@
       <c r="V3" s="1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -6477,8 +6790,14 @@
       <c r="V4" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -6545,8 +6864,14 @@
       <c r="V5" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -6613,8 +6938,14 @@
       <c r="V6" s="1" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -6681,8 +7012,14 @@
       <c r="V7" s="1" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -6749,8 +7086,14 @@
       <c r="V8" s="1" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -6817,8 +7160,14 @@
       <c r="V9" s="1" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -6885,8 +7234,14 @@
       <c r="V10" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -6953,8 +7308,14 @@
       <c r="V11" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
@@ -7021,8 +7382,14 @@
       <c r="V12" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -7089,8 +7456,14 @@
       <c r="V13" s="1" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -7157,8 +7530,14 @@
       <c r="V14" s="1" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>190</v>
       </c>
@@ -7225,8 +7604,14 @@
       <c r="V15" s="1" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>234</v>
       </c>
@@ -7293,8 +7678,14 @@
       <c r="V16" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>250</v>
       </c>
@@ -7361,8 +7752,14 @@
       <c r="V17" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>280</v>
       </c>
@@ -7429,8 +7826,14 @@
       <c r="V18" s="1" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>290</v>
       </c>
@@ -7497,8 +7900,14 @@
       <c r="V19" s="1" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7565,8 +7974,14 @@
       <c r="V20" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -7633,8 +8048,14 @@
       <c r="V21" s="1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
         <v>148</v>
       </c>
@@ -7701,8 +8122,14 @@
       <c r="V22" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -7769,8 +8196,14 @@
       <c r="V23" s="1" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
         <v>192</v>
       </c>
@@ -7837,8 +8270,14 @@
       <c r="V24" s="1" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -7905,8 +8344,14 @@
       <c r="V25" s="1" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>246</v>
       </c>
@@ -7973,8 +8418,14 @@
       <c r="V26" s="1" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -8041,8 +8492,14 @@
       <c r="V27" s="1" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
         <v>262</v>
       </c>
@@ -8109,8 +8566,14 @@
       <c r="V28" s="1" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
         <v>284</v>
       </c>
@@ -8177,8 +8640,14 @@
       <c r="V29" s="1" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
         <v>298</v>
       </c>
@@ -8245,8 +8714,14 @@
       <c r="V30" s="1" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -8313,8 +8788,14 @@
       <c r="V31" s="1" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -8381,8 +8862,14 @@
       <c r="V32" s="1" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -8449,8 +8936,14 @@
       <c r="V33" s="1" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -8517,8 +9010,14 @@
       <c r="V34" s="1" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -8585,8 +9084,14 @@
       <c r="V35" s="1" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -8653,8 +9158,14 @@
       <c r="V36" s="1" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -8721,8 +9232,14 @@
       <c r="V37" s="1" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -8789,8 +9306,14 @@
       <c r="V38" s="1" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -8857,8 +9380,14 @@
       <c r="V39" s="1" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -8925,8 +9454,14 @@
       <c r="V40" s="1" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -8993,8 +9528,14 @@
       <c r="V41" s="1" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
@@ -9061,8 +9602,14 @@
       <c r="V42" s="1" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
@@ -9129,8 +9676,14 @@
       <c r="V43" s="1" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
         <v>136</v>
       </c>
@@ -9197,8 +9750,14 @@
       <c r="V44" s="1" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -9265,8 +9824,14 @@
       <c r="V45" s="1" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
         <v>154</v>
       </c>
@@ -9333,8 +9898,14 @@
       <c r="V46" s="1" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -9401,8 +9972,14 @@
       <c r="V47" s="1" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -9469,8 +10046,14 @@
       <c r="V48" s="1" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
@@ -9537,8 +10120,14 @@
       <c r="V49" s="1" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
         <v>188</v>
       </c>
@@ -9605,8 +10194,14 @@
       <c r="V50" s="1" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -9673,8 +10268,14 @@
       <c r="V51" s="1" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -9741,8 +10342,14 @@
       <c r="V52" s="1" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
         <v>240</v>
       </c>
@@ -9809,8 +10416,14 @@
       <c r="V53" s="1" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
         <v>252</v>
       </c>
@@ -9877,8 +10490,14 @@
       <c r="V54" s="1" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
         <v>270</v>
       </c>
@@ -9945,8 +10564,14 @@
       <c r="V55" s="1" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
         <v>272</v>
       </c>
@@ -10013,8 +10638,14 @@
       <c r="V56" s="1" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
         <v>288</v>
       </c>
@@ -10081,8 +10712,14 @@
       <c r="V57" s="1" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
         <v>294</v>
       </c>
@@ -10149,8 +10786,14 @@
       <c r="V58" s="1" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -10217,8 +10860,14 @@
       <c r="V59" s="1" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -10285,8 +10934,14 @@
       <c r="V60" s="1" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -10353,8 +11008,14 @@
       <c r="V61" s="1" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -10421,8 +11082,14 @@
       <c r="V62" s="1" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -10489,8 +11156,14 @@
       <c r="V63" s="1" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
@@ -10557,8 +11230,14 @@
       <c r="V64" s="1" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -10625,8 +11304,14 @@
       <c r="V65" s="1" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
@@ -10693,8 +11378,14 @@
       <c r="V66" s="1" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
         <v>210</v>
       </c>
@@ -10761,8 +11452,14 @@
       <c r="V67" s="1" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
         <v>228</v>
       </c>
@@ -10829,8 +11526,14 @@
       <c r="V68" s="1" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
         <v>248</v>
       </c>
@@ -10897,8 +11600,14 @@
       <c r="V69" s="1" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
         <v>254</v>
       </c>
@@ -10965,8 +11674,14 @@
       <c r="V70" s="1" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
         <v>266</v>
       </c>
@@ -11033,8 +11748,14 @@
       <c r="V71" s="1" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1" t="s">
         <v>268</v>
       </c>
@@ -11101,8 +11822,14 @@
       <c r="V72" s="1" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
         <v>292</v>
       </c>
@@ -11163,8 +11890,14 @@
       <c r="V73" s="1" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -11219,8 +11952,14 @@
       <c r="V74" s="1" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -11275,8 +12014,14 @@
       <c r="V75" s="1" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -11331,8 +12076,14 @@
       <c r="V76" s="1" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -11387,8 +12138,14 @@
       <c r="V77" s="1" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -11443,8 +12200,14 @@
       <c r="V78" s="1" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
@@ -11499,8 +12262,14 @@
       <c r="V79" s="1" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -11555,8 +12324,14 @@
       <c r="V80" s="1" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
         <v>138</v>
       </c>
@@ -11611,8 +12386,14 @@
       <c r="V81" s="1" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -11661,8 +12442,14 @@
       <c r="T82" s="1" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
         <v>152</v>
       </c>
@@ -11711,8 +12498,14 @@
       <c r="T83" s="1" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
@@ -11761,8 +12554,14 @@
       <c r="T84" s="1" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
         <v>162</v>
       </c>
@@ -11811,8 +12610,14 @@
       <c r="T85" s="1" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -11861,8 +12666,14 @@
       <c r="T86" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
@@ -11911,8 +12722,14 @@
       <c r="T87" s="1" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1" t="s">
         <v>200</v>
       </c>
@@ -11961,8 +12778,14 @@
       <c r="T88" s="1" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
         <v>216</v>
       </c>
@@ -12011,8 +12834,14 @@
       <c r="T89" s="1" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1" t="s">
         <v>220</v>
       </c>
@@ -12061,8 +12890,14 @@
       <c r="T90" s="1" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -12111,8 +12946,14 @@
       <c r="T91" s="1" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -12161,8 +13002,14 @@
       <c r="T92" s="1" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1" t="s">
         <v>238</v>
       </c>
@@ -12211,8 +13058,14 @@
       <c r="T93" s="1" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="1" t="s">
         <v>264</v>
       </c>
@@ -12261,8 +13114,14 @@
       <c r="T94" s="1" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -12311,8 +13170,14 @@
       <c r="T95" s="1" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="1" t="s">
         <v>286</v>
       </c>
@@ -12361,8 +13226,14 @@
       <c r="T96" s="1" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="W96" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -12411,8 +13282,14 @@
       <c r="T97" s="1" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="W97" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1" t="s">
         <v>70</v>
       </c>
@@ -12461,8 +13338,14 @@
       <c r="T98" s="1" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="W98" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
@@ -12511,8 +13394,14 @@
       <c r="T99" s="1" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="W99" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
@@ -12561,8 +13450,14 @@
       <c r="T100" s="1" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="W100" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
         <v>258</v>
       </c>
@@ -12611,8 +13506,14 @@
       <c r="T101" s="1" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="W101" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="1" t="s">
         <v>302</v>
       </c>
@@ -12661,8 +13562,14 @@
       <c r="T102" s="1" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="W102" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -12711,8 +13618,14 @@
       <c r="T103" s="1" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="W103" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -12761,8 +13674,14 @@
       <c r="T104" s="1" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="W104" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="1" t="s">
         <v>40</v>
       </c>
@@ -12811,8 +13730,14 @@
       <c r="T105" s="1" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="W105" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="1" t="s">
         <v>46</v>
       </c>
@@ -12861,8 +13786,14 @@
       <c r="T106" s="1" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="W106" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
@@ -12911,8 +13842,14 @@
       <c r="T107" s="1" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="W107" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="1" t="s">
         <v>64</v>
       </c>
@@ -12961,8 +13898,14 @@
       <c r="T108" s="1" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="109" spans="1:20">
+      <c r="W108" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="1" t="s">
         <v>90</v>
       </c>
@@ -13011,8 +13954,14 @@
       <c r="T109" s="1" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="W109" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="1" t="s">
         <v>132</v>
       </c>
@@ -13061,8 +14010,14 @@
       <c r="T110" s="1" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="W110" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
@@ -13111,8 +14066,14 @@
       <c r="T111" s="1" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="W111" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="1" t="s">
         <v>230</v>
       </c>
@@ -13161,8 +14122,14 @@
       <c r="T112" s="1" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="W112" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="1" t="s">
         <v>236</v>
       </c>
@@ -13211,8 +14178,14 @@
       <c r="T113" s="1" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="W113" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="1" t="s">
         <v>260</v>
       </c>
@@ -13261,8 +14234,14 @@
       <c r="T114" s="1" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="W114" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -13311,8 +14290,14 @@
       <c r="T115" s="1" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="116" spans="1:20">
+      <c r="W115" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -13361,8 +14346,14 @@
       <c r="T116" s="1" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="W116" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
@@ -13411,8 +14402,14 @@
       <c r="T117" s="1" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="118" spans="1:20">
+      <c r="W117" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -13461,8 +14458,14 @@
       <c r="T118" s="1" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="119" spans="1:20">
+      <c r="W118" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="1" t="s">
         <v>36</v>
       </c>
@@ -13511,8 +14514,14 @@
       <c r="T119" s="1" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="120" spans="1:20">
+      <c r="W119" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="1" t="s">
         <v>38</v>
       </c>
@@ -13561,8 +14570,14 @@
       <c r="T120" s="1" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="121" spans="1:20">
+      <c r="W120" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="1" t="s">
         <v>50</v>
       </c>
@@ -13611,8 +14626,14 @@
       <c r="T121" s="1" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="122" spans="1:20">
+      <c r="W121" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="1" t="s">
         <v>58</v>
       </c>
@@ -13661,8 +14682,14 @@
       <c r="T122" s="1" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="123" spans="1:20">
+      <c r="W122" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="1" t="s">
         <v>60</v>
       </c>
@@ -13711,8 +14738,14 @@
       <c r="T123" s="1" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="124" spans="1:20">
+      <c r="W123" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="1" t="s">
         <v>68</v>
       </c>
@@ -13761,8 +14794,14 @@
       <c r="T124" s="1" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="125" spans="1:20">
+      <c r="W124" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="1" t="s">
         <v>72</v>
       </c>
@@ -13805,8 +14844,14 @@
       <c r="R125" s="1" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="126" spans="1:20">
+      <c r="W125" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="1" t="s">
         <v>74</v>
       </c>
@@ -13849,8 +14894,14 @@
       <c r="R126" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="127" spans="1:20">
+      <c r="W126" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="1" t="s">
         <v>80</v>
       </c>
@@ -13887,8 +14938,14 @@
       <c r="P127" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="128" spans="1:20">
+      <c r="W127" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="1" t="s">
         <v>82</v>
       </c>
@@ -13925,8 +14982,14 @@
       <c r="P128" s="1" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="W128" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="1" t="s">
         <v>84</v>
       </c>
@@ -13957,8 +15020,14 @@
       <c r="P129" s="1" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="W129" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="1" t="s">
         <v>88</v>
       </c>
@@ -13989,8 +15058,14 @@
       <c r="P130" s="1" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="W130" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="1" t="s">
         <v>92</v>
       </c>
@@ -14021,8 +15096,14 @@
       <c r="P131" s="1" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="W131" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="1" t="s">
         <v>100</v>
       </c>
@@ -14053,8 +15134,14 @@
       <c r="P132" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="W132" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="X132" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="1" t="s">
         <v>112</v>
       </c>
@@ -14085,8 +15172,14 @@
       <c r="P133" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="W133" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="1" t="s">
         <v>118</v>
       </c>
@@ -14117,8 +15210,14 @@
       <c r="P134" s="1" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="W134" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -14149,8 +15248,14 @@
       <c r="P135" s="1" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="W135" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="X135" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -14181,8 +15286,14 @@
       <c r="P136" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="W136" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="1" t="s">
         <v>160</v>
       </c>
@@ -14213,8 +15324,14 @@
       <c r="P137" s="1" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="W137" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="1" t="s">
         <v>172</v>
       </c>
@@ -14245,8 +15362,14 @@
       <c r="P138" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="W138" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="1" t="s">
         <v>182</v>
       </c>
@@ -14277,8 +15400,14 @@
       <c r="P139" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="W139" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
@@ -14309,8 +15438,14 @@
       <c r="P140" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="W140" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="1" t="s">
         <v>194</v>
       </c>
@@ -14341,8 +15476,14 @@
       <c r="P141" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="W141" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="1" t="s">
         <v>198</v>
       </c>
@@ -14374,7 +15515,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:24">
       <c r="A143" s="1" t="s">
         <v>208</v>
       </c>
@@ -14406,7 +15547,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:24">
       <c r="A144" s="1" t="s">
         <v>212</v>
       </c>
@@ -15683,31 +16824,31 @@
     <sortCondition sortBy="cellColor" ref="U2:U242" dxfId="10"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:P166">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
